--- a/SchedulingData/dynamic11/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>251.88</v>
+        <v>248.9</v>
       </c>
       <c r="D2" t="n">
-        <v>305.68</v>
+        <v>328.26</v>
       </c>
       <c r="E2" t="n">
-        <v>13.572</v>
+        <v>10.344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>305.68</v>
+        <v>219.78</v>
       </c>
       <c r="D3" t="n">
-        <v>364.68</v>
+        <v>277</v>
       </c>
       <c r="E3" t="n">
-        <v>10.272</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>234.98</v>
+        <v>234.18</v>
       </c>
       <c r="D4" t="n">
-        <v>297.2</v>
+        <v>269.68</v>
       </c>
       <c r="E4" t="n">
-        <v>12.46</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>297.2</v>
+        <v>328.26</v>
       </c>
       <c r="D5" t="n">
-        <v>360.46</v>
+        <v>381.9</v>
       </c>
       <c r="E5" t="n">
-        <v>8.763999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="6">
@@ -542,93 +542,93 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>364.68</v>
+        <v>269.68</v>
       </c>
       <c r="D6" t="n">
-        <v>416.58</v>
+        <v>335.3</v>
       </c>
       <c r="E6" t="n">
-        <v>8.192</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>360.46</v>
+        <v>277</v>
       </c>
       <c r="D7" t="n">
-        <v>421.26</v>
+        <v>309.32</v>
       </c>
       <c r="E7" t="n">
-        <v>5.804</v>
+        <v>7.408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>269.76</v>
+        <v>228.52</v>
       </c>
       <c r="D8" t="n">
-        <v>333.42</v>
+        <v>265.62</v>
       </c>
       <c r="E8" t="n">
-        <v>11.288</v>
+        <v>13.588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>258.84</v>
+        <v>335.3</v>
       </c>
       <c r="D9" t="n">
-        <v>313.84</v>
+        <v>375.2</v>
       </c>
       <c r="E9" t="n">
-        <v>12.276</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>333.42</v>
+        <v>265.62</v>
       </c>
       <c r="D10" t="n">
-        <v>402.4</v>
+        <v>305.58</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>11.212</v>
       </c>
     </row>
     <row r="11">
@@ -637,131 +637,131 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>254.56</v>
+        <v>201.02</v>
       </c>
       <c r="D11" t="n">
-        <v>313.46</v>
+        <v>245.3</v>
       </c>
       <c r="E11" t="n">
-        <v>9.804</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>421.26</v>
+        <v>309.32</v>
       </c>
       <c r="D12" t="n">
-        <v>480.24</v>
+        <v>359.12</v>
       </c>
       <c r="E12" t="n">
-        <v>2.996</v>
+        <v>4.548</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>250.6</v>
+        <v>245.3</v>
       </c>
       <c r="D13" t="n">
-        <v>299.78</v>
+        <v>323.24</v>
       </c>
       <c r="E13" t="n">
-        <v>11.652</v>
+        <v>13.836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>416.58</v>
+        <v>216.98</v>
       </c>
       <c r="D14" t="n">
-        <v>464.24</v>
+        <v>290.72</v>
       </c>
       <c r="E14" t="n">
-        <v>5.056</v>
+        <v>14.408</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>464.24</v>
+        <v>290.72</v>
       </c>
       <c r="D15" t="n">
-        <v>516.36</v>
+        <v>356.68</v>
       </c>
       <c r="E15" t="n">
-        <v>2.464</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>313.46</v>
+        <v>375.2</v>
       </c>
       <c r="D16" t="n">
-        <v>364.96</v>
+        <v>407.7</v>
       </c>
       <c r="E16" t="n">
-        <v>5.784</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>480.24</v>
+        <v>323.24</v>
       </c>
       <c r="D17" t="n">
-        <v>545.4400000000001</v>
+        <v>373</v>
       </c>
       <c r="E17" t="n">
-        <v>0.576</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="18">
@@ -770,112 +770,112 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>545.4400000000001</v>
+        <v>305.58</v>
       </c>
       <c r="D18" t="n">
-        <v>640.89</v>
+        <v>357.48</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>8.132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>402.4</v>
+        <v>373</v>
       </c>
       <c r="D19" t="n">
-        <v>457.26</v>
+        <v>432.86</v>
       </c>
       <c r="E19" t="n">
-        <v>6.624</v>
+        <v>9.084</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>364.96</v>
+        <v>356.68</v>
       </c>
       <c r="D20" t="n">
-        <v>397.28</v>
+        <v>403.7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.192</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>397.28</v>
+        <v>381.9</v>
       </c>
       <c r="D21" t="n">
-        <v>440.82</v>
+        <v>458.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.948</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>440.82</v>
+        <v>357.48</v>
       </c>
       <c r="D22" t="n">
-        <v>530.42</v>
+        <v>435.78</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>4.892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>530.42</v>
+        <v>403.7</v>
       </c>
       <c r="D23" t="n">
-        <v>590.78</v>
+        <v>458.6</v>
       </c>
       <c r="E23" t="n">
-        <v>27.624</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="24">
@@ -884,150 +884,150 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>299.78</v>
+        <v>458.7</v>
       </c>
       <c r="D24" t="n">
-        <v>364.48</v>
+        <v>521.28</v>
       </c>
       <c r="E24" t="n">
-        <v>8.792</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>313.84</v>
+        <v>521.28</v>
       </c>
       <c r="D25" t="n">
-        <v>346.74</v>
+        <v>618.98</v>
       </c>
       <c r="E25" t="n">
-        <v>10.116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>457.26</v>
+        <v>435.78</v>
       </c>
       <c r="D26" t="n">
-        <v>507.02</v>
+        <v>485.16</v>
       </c>
       <c r="E26" t="n">
-        <v>4.248</v>
+        <v>2.084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>590.78</v>
+        <v>458.6</v>
       </c>
       <c r="D27" t="n">
-        <v>637.8</v>
+        <v>506.4</v>
       </c>
       <c r="E27" t="n">
-        <v>25.032</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>346.74</v>
+        <v>359.12</v>
       </c>
       <c r="D28" t="n">
-        <v>388.84</v>
+        <v>405.76</v>
       </c>
       <c r="E28" t="n">
-        <v>7.036</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>364.48</v>
+        <v>405.76</v>
       </c>
       <c r="D29" t="n">
-        <v>412.38</v>
+        <v>493.35</v>
       </c>
       <c r="E29" t="n">
-        <v>6.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>388.84</v>
+        <v>493.35</v>
       </c>
       <c r="D30" t="n">
-        <v>437.54</v>
+        <v>552.95</v>
       </c>
       <c r="E30" t="n">
-        <v>3.796</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>412.38</v>
+        <v>506.4</v>
       </c>
       <c r="D31" t="n">
-        <v>483.98</v>
+        <v>554.3</v>
       </c>
       <c r="E31" t="n">
-        <v>4.552</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="32">
@@ -1036,71 +1036,71 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>437.54</v>
+        <v>554.3</v>
       </c>
       <c r="D32" t="n">
-        <v>495.24</v>
+        <v>653.24</v>
       </c>
       <c r="E32" t="n">
-        <v>1.156</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>495.24</v>
+        <v>618.98</v>
       </c>
       <c r="D33" t="n">
-        <v>594.33</v>
+        <v>696.08</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>507.02</v>
+        <v>407.7</v>
       </c>
       <c r="D34" t="n">
-        <v>561.2</v>
+        <v>444.92</v>
       </c>
       <c r="E34" t="n">
-        <v>1.44</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>561.2</v>
+        <v>444.92</v>
       </c>
       <c r="D35" t="n">
-        <v>649.92</v>
+        <v>525.34</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,154 +1108,173 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>516.36</v>
+        <v>432.86</v>
       </c>
       <c r="D36" t="n">
-        <v>598.03</v>
+        <v>476.66</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>5.844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>598.03</v>
+        <v>485.16</v>
       </c>
       <c r="D37" t="n">
-        <v>657.33</v>
+        <v>547.99</v>
       </c>
       <c r="E37" t="n">
-        <v>26.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>483.98</v>
+        <v>547.99</v>
       </c>
       <c r="D38" t="n">
-        <v>547.34</v>
+        <v>587.39</v>
       </c>
       <c r="E38" t="n">
-        <v>1.796</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>547.34</v>
+        <v>525.34</v>
       </c>
       <c r="D39" t="n">
-        <v>645.05</v>
+        <v>603.24</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>649.92</v>
+        <v>603.24</v>
       </c>
       <c r="D40" t="n">
-        <v>711.96</v>
+        <v>637.42</v>
       </c>
       <c r="E40" t="n">
-        <v>27.456</v>
+        <v>25.552</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>640.89</v>
+        <v>476.66</v>
       </c>
       <c r="D41" t="n">
-        <v>686.29</v>
+        <v>525.62</v>
       </c>
       <c r="E41" t="n">
-        <v>27.14</v>
+        <v>3.088</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>645.05</v>
+        <v>552.95</v>
       </c>
       <c r="D42" t="n">
-        <v>678.15</v>
+        <v>600.51</v>
       </c>
       <c r="E42" t="n">
-        <v>27.88</v>
+        <v>23.564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>637.8</v>
+        <v>587.39</v>
       </c>
       <c r="D43" t="n">
-        <v>729.4</v>
+        <v>646.05</v>
       </c>
       <c r="E43" t="n">
-        <v>21.952</v>
+        <v>24.004</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond12</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>637.42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>681.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22.744</v>
       </c>
     </row>
   </sheetData>
